--- a/Timer/BOM.xlsx
+++ b/Timer/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>SL.NO</t>
   </si>
@@ -54,28 +54,19 @@
     <t>1 EACH</t>
   </si>
   <si>
-    <t>REALY BOARD</t>
-  </si>
-  <si>
-    <t>SINGLE CHANNEL</t>
-  </si>
-  <si>
     <t>SEVEN SEGMENT DISPLAY BOARD</t>
   </si>
   <si>
-    <t>PCB_DESIGN_SSD</t>
-  </si>
-  <si>
-    <t>2INCH, 4 DIGITS</t>
-  </si>
-  <si>
-    <t>MMD</t>
-  </si>
-  <si>
-    <t>2INCH, 8 DIGITS</t>
-  </si>
-  <si>
-    <t>DECODER</t>
+    <t>PUSH BUTTONS</t>
+  </si>
+  <si>
+    <t>HOOTER</t>
+  </si>
+  <si>
+    <t>2INCH, 2 DIGITS</t>
+  </si>
+  <si>
+    <t>RELAY BOARD</t>
   </si>
 </sst>
 </file>
@@ -454,7 +445,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,45 +517,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="2">
         <v>1</v>
       </c>
@@ -575,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2">
@@ -587,11 +570,9 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
     <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
